--- a/alternate_products.xlsx
+++ b/alternate_products.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>product_title</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>product_collection</t>
+  </si>
+  <si>
+    <t>Give Me Amore - 3 Item</t>
+  </si>
+  <si>
+    <t>Give Me Amore - 5 Item</t>
+  </si>
+  <si>
+    <t>Sweetest Thing - 3 Item</t>
+  </si>
+  <si>
+    <t>Sweetest Thing - 5 Item</t>
   </si>
 </sst>
 </file>
@@ -418,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -518,9 +530,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>138427793426</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1340711501842</v>
+      </c>
+      <c r="D6" s="1">
+        <v>764204126842</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>138427695122</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1340711272466</v>
+      </c>
+      <c r="D7" s="1">
+        <v>764204126866</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>138427596818</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1340709568530</v>
+      </c>
+      <c r="D8" s="1">
+        <v>764204046881</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>138427465746</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1340707569682</v>
+      </c>
+      <c r="D9" s="1">
+        <v>764204126859</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
